--- a/Pm sheet.xlsx
+++ b/Pm sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16DF52B2-3C0E-493E-9878-5E8387C34BF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B9EA1A-77CB-4D82-93F2-AC381B8BAA1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{EDBCEC37-6152-48D2-855C-0C000299ECAD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Task</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Anil</t>
+  </si>
+  <si>
+    <t>Story-10</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
   <dimension ref="A3:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,6 +506,12 @@
       <c r="C8">
         <v>2</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
@@ -517,6 +526,12 @@
       <c r="C9">
         <v>2</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
@@ -531,7 +546,93 @@
       <c r="C10">
         <v>2</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
       <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Pm sheet.xlsx
+++ b/Pm sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B9EA1A-77CB-4D82-93F2-AC381B8BAA1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5DA925-D137-48D5-A380-317EBDF89CDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{EDBCEC37-6152-48D2-855C-0C000299ECAD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Task</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Story-10</t>
+  </si>
+  <si>
+    <t>Story-7</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
   <dimension ref="A3:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,87 +559,167 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1"/>
     </row>
   </sheetData>

--- a/Pm sheet.xlsx
+++ b/Pm sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5DA925-D137-48D5-A380-317EBDF89CDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA322F79-7F05-469A-AB99-D5EEEA6D5A4F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{EDBCEC37-6152-48D2-855C-0C000299ECAD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDBCEC37-6152-48D2-855C-0C000299ECAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>Story-7</t>
+  </si>
+  <si>
+    <t>Story-5</t>
+  </si>
+  <si>
+    <t>Story18</t>
+  </si>
+  <si>
+    <t>Story17</t>
+  </si>
+  <si>
+    <t>Story-6</t>
+  </si>
+  <si>
+    <t>Story-17</t>
   </si>
 </sst>
 </file>
@@ -99,14 +114,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="34"/>
+      <sz val="26"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="26"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,10 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -466,36 +480,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DE137C-0173-4D25-8AC4-CF639F00AFA5}">
-  <dimension ref="A3:F24"/>
+  <dimension ref="A3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:6" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -719,10 +733,208 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="1"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Pm sheet.xlsx
+++ b/Pm sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA322F79-7F05-469A-AB99-D5EEEA6D5A4F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4DD556-D757-4F10-9D01-92641656F2FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDBCEC37-6152-48D2-855C-0C000299ECAD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Story-17</t>
+  </si>
+  <si>
+    <t>Story-20</t>
+  </si>
+  <si>
+    <t>Story 19</t>
   </si>
 </sst>
 </file>
@@ -480,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DE137C-0173-4D25-8AC4-CF639F00AFA5}">
-  <dimension ref="A3:F34"/>
+  <dimension ref="A3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,63 +879,103 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>19</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Pm sheet.xlsx
+++ b/Pm sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\DeepSpace - Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4DD556-D757-4F10-9D01-92641656F2FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E37D3D0-915E-4F2A-AB8F-BE8756D84307}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EDBCEC37-6152-48D2-855C-0C000299ECAD}"/>
+    <workbookView xWindow="4470" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{EDBCEC37-6152-48D2-855C-0C000299ECAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>Task</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Story 19</t>
+  </si>
+  <si>
+    <t>Sprint</t>
   </si>
 </sst>
 </file>
@@ -168,10 +171,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -486,20 +490,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DE137C-0173-4D25-8AC4-CF639F00AFA5}">
-  <dimension ref="A3:F36"/>
+  <dimension ref="A3:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:6" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -518,8 +522,11 @@
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -538,8 +545,11 @@
       <c r="F8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="3">
+        <v>46388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -559,7 +569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -579,7 +589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -598,8 +608,11 @@
       <c r="F12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="3">
+        <v>40210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -619,7 +632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -639,7 +652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -658,8 +671,11 @@
       <c r="F16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="3">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -679,7 +695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -699,7 +715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -718,8 +734,11 @@
       <c r="F20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="3">
+        <v>39873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -739,7 +758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -759,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -778,8 +797,11 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="3">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -799,7 +821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -819,7 +841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -838,8 +860,11 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="3">
+        <v>38808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -859,7 +884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -879,7 +904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -899,7 +924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -918,8 +943,11 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="3">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -939,7 +967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -959,7 +987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
